--- a/textsplit-excel-demo.xlsx
+++ b/textsplit-excel-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9DF6B09-6B7A-4A1A-BF8E-BDAEF9201C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D065FC09-3276-46F1-9254-3294D1E06F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="3" xr2:uid="{C9CD9E68-24F0-428F-9E7B-999EB0AFDD45}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{C9CD9E68-24F0-428F-9E7B-999EB0AFDD45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E81D28-3FE3-47E6-AC9B-B21B01054D91}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -460,30 +460,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">_xlfn.TEXTSPLIT(A1, ",")</f>
+        <f t="array" ref="B1:D1">_xlfn.TEXTSPLIT(A1, ", ")</f>
         <v>Apple</v>
       </c>
       <c r="C1" t="str">
-        <v xml:space="preserve"> Banana</v>
+        <v>Banana</v>
       </c>
       <c r="D1" t="str">
-        <v xml:space="preserve"> Cherry</v>
+        <v>Cherry</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:B5">_xlfn.TEXTSPLIT(A1, , ",")</f>
+        <f t="array" ref="B3:B5">_xlfn.TEXTSPLIT(A1, , ", ")</f>
         <v>Apple</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="str">
-        <v xml:space="preserve"> Banana</v>
+        <v>Banana</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="str">
-        <v xml:space="preserve"> Cherry</v>
+        <v>Cherry</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +542,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">_xlfn.TEXTSPLIT(A1, ",",, TRUE)</f>
+        <f t="array" ref="B1:D1">_xlfn.TEXTSPLIT(A1, ",", , TRUE)</f>
         <v>Red</v>
       </c>
       <c r="C1" t="str">
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB51D0B-8306-42B9-A9EF-63FF4F48EA24}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
